--- a/Data/Bilançolar/BAKAB.xlsx
+++ b/Data/Bilançolar/BAKAB.xlsx
@@ -13155,7 +13155,7 @@
         <v>917432723</v>
       </c>
       <c r="C73" t="n">
-        <v>397690403</v>
+        <v>399238971</v>
       </c>
       <c r="D73" t="n">
         <v>895822327</v>
@@ -13330,7 +13330,7 @@
         <v>-782114172</v>
       </c>
       <c r="C74" t="n">
-        <v>-341523661</v>
+        <v>-341599838</v>
       </c>
       <c r="D74" t="n">
         <v>-760801478</v>
@@ -13680,7 +13680,7 @@
         <v>135318551</v>
       </c>
       <c r="C76" t="n">
-        <v>56166742</v>
+        <v>57639133</v>
       </c>
       <c r="D76" t="n">
         <v>135020849</v>
@@ -14730,7 +14730,7 @@
         <v>135318551</v>
       </c>
       <c r="C82" t="n">
-        <v>56166742</v>
+        <v>57639133</v>
       </c>
       <c r="D82" t="n">
         <v>135020849</v>
@@ -14905,7 +14905,7 @@
         <v>-19855318</v>
       </c>
       <c r="C83" t="n">
-        <v>-8821277</v>
+        <v>-10369846</v>
       </c>
       <c r="D83" t="n">
         <v>-20053821</v>
@@ -15080,7 +15080,7 @@
         <v>-35519918</v>
       </c>
       <c r="C84" t="n">
-        <v>-15998134</v>
+        <v>-15998133</v>
       </c>
       <c r="D84" t="n">
         <v>-44377059</v>
@@ -15430,7 +15430,7 @@
         <v>82467220</v>
       </c>
       <c r="C86" t="n">
-        <v>31944383</v>
+        <v>31944384</v>
       </c>
       <c r="D86" t="n">
         <v>154534566</v>
@@ -15605,7 +15605,7 @@
         <v>-69797745</v>
       </c>
       <c r="C87" t="n">
-        <v>-23509934</v>
+        <v>-23509911</v>
       </c>
       <c r="D87" t="n">
         <v>-133724346</v>
@@ -15955,7 +15955,7 @@
         <v>90346439</v>
       </c>
       <c r="C89" t="n">
-        <v>38565069</v>
+        <v>38488916</v>
       </c>
       <c r="D89" t="n">
         <v>87891289</v>
@@ -16130,7 +16130,7 @@
         <v>77676964</v>
       </c>
       <c r="C90" t="n">
-        <v>30130620</v>
+        <v>30054443</v>
       </c>
       <c r="D90" t="n">
         <v>67081069</v>
@@ -17005,7 +17005,7 @@
         <v>90346439</v>
       </c>
       <c r="C95" t="n">
-        <v>38565069</v>
+        <v>38488916</v>
       </c>
       <c r="D95" t="n">
         <v>88488268</v>
@@ -17705,7 +17705,7 @@
         <v>65359483</v>
       </c>
       <c r="C99" t="n">
-        <v>29460829</v>
+        <v>29384676</v>
       </c>
       <c r="D99" t="n">
         <v>76593784</v>
@@ -17880,7 +17880,7 @@
         <v>1472391</v>
       </c>
       <c r="C100" t="n">
-        <v>-6818167</v>
+        <v>-6818173</v>
       </c>
       <c r="D100" t="n">
         <v>-417711</v>
@@ -18055,7 +18055,7 @@
         <v>-16397880</v>
       </c>
       <c r="C101" t="n">
-        <v>-7870393</v>
+        <v>-7870395</v>
       </c>
       <c r="D101" t="n">
         <v>-19859141</v>
@@ -18230,7 +18230,7 @@
         <v>17870271</v>
       </c>
       <c r="C102" t="n">
-        <v>1052226</v>
+        <v>1052222</v>
       </c>
       <c r="D102" t="n">
         <v>19441430</v>
@@ -18580,7 +18580,7 @@
         <v>66831874</v>
       </c>
       <c r="C104" t="n">
-        <v>22642662</v>
+        <v>22566503</v>
       </c>
       <c r="D104" t="n">
         <v>76176073</v>
@@ -19105,7 +19105,7 @@
         <v>66831874</v>
       </c>
       <c r="C107" t="n">
-        <v>22642662</v>
+        <v>22566503</v>
       </c>
       <c r="D107" t="n">
         <v>76176073</v>
@@ -19630,7 +19630,7 @@
         <v>66831874</v>
       </c>
       <c r="C110" t="n">
-        <v>22642662</v>
+        <v>22566503</v>
       </c>
       <c r="D110" t="n">
         <v>76176073</v>
